--- a/biology/Zoologie/Cucujus_cinnaberinus/Cucujus_cinnaberinus.xlsx
+++ b/biology/Zoologie/Cucujus_cinnaberinus/Cucujus_cinnaberinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cucujus cinnaberinus, communément appelé Cucujus vermillon[2], est une espèce d'insectes coléoptères de la famille des Cucujidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cucujus cinnaberinus, communément appelé Cucujus vermillon, est une espèce d'insectes coléoptères de la famille des Cucujidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cucujus cinnaberinus a été initialement décrite en 1763 par le naturaliste tyrolien Giovanni Antonio Scopoli[3] (1723-1788) sous le protonyme de Meloe cinnaberinus[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cucujus cinnaberinus a été initialement décrite en 1763 par le naturaliste tyrolien Giovanni Antonio Scopoli (1723-1788) sous le protonyme de Meloe cinnaberinus.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa forme larvaire est orange et sa forme imago d’un rouge vif qui lui vaut son nom vernaculaire français avec des pattes entièrement noires, contrairement à Cucujus clavipes dont les fémurs sont rouges vifs.
-L’espèce est saproxylique : sa larve se développe dans le bois mort, sous l’écorce de n’importe quelle essence dès lors que l’écorce est assez épaisse, avec une apparente préférence pour les peupliers[5]. Cucujus cinnaberinus figure dans les annexes de la Directive Habitats Faune Flore, les pays membres de l’UE doivent donc suivre l’évolution de ses populations.
+L’espèce est saproxylique : sa larve se développe dans le bois mort, sous l’écorce de n’importe quelle essence dès lors que l’écorce est assez épaisse, avec une apparente préférence pour les peupliers. Cucujus cinnaberinus figure dans les annexes de la Directive Habitats Faune Flore, les pays membres de l’UE doivent donc suivre l’évolution de ses populations.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ioannis Antonii Scopoli, Entomologica Carniolica exhibens insecta Carnioliae indigena et distributa in ordines, genera, species, varietates methodo Linnaeana,  (œuvre écrite), Vienne, 1763, [lire en ligne]</t>
         </is>
